--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1842852.725230435</v>
+        <v>-1845572.12637468</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>126.1002810344399</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>351.1148093314918</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>261.6971623605407</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>197.4147107719971</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.77400913958287</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.2998148075387</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>213.206622093263</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>85.36610313819087</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.29018219107457</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>139.7826665816195</v>
       </c>
       <c r="G8" t="n">
-        <v>257.9673895832977</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>76.12537273321394</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>178.3639728897847</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>136.420795521365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>98.9509526216608</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.8253826161915776</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>245.5965749716198</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>56.10180801516471</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8640357413588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652474</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261716</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652588</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652588</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>736.6224273402283</v>
+        <v>790.6420966749561</v>
       </c>
       <c r="C2" t="n">
-        <v>736.6224273402283</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="D2" t="n">
-        <v>381.9610037730649</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9610037730649</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>381.9610037730649</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>381.9610037730649</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.76175931604</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402283</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1866.686420315119</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>1697.750237387212</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>1547.633597974876</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.720504392483</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392483</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2170.637584419575</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1915.953096213688</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W4" t="n">
-        <v>1915.953096213688</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X4" t="n">
-        <v>1915.953096213688</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y4" t="n">
-        <v>1866.686420315119</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1262.465201337207</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1262.465201337207</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1262.465201337207</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>876.6769487389629</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>465.6910439493553</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.065041401329</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1649.065041401329</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>812.8918298888576</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>432.2782146565802</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>284.3651210741871</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>137.4751735762767</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.368897238275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.684409032388</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1033.684409032388</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.684409032388</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.8918298888576</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>639.44191161654</v>
       </c>
       <c r="C8" t="n">
-        <v>1081.071510755571</v>
+        <v>270.4793946761283</v>
       </c>
       <c r="D8" t="n">
-        <v>722.8058121488205</v>
+        <v>270.4793946761283</v>
       </c>
       <c r="E8" t="n">
-        <v>722.8058121488205</v>
+        <v>270.4793946761283</v>
       </c>
       <c r="F8" t="n">
-        <v>311.8199073592129</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1026.041751680662</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
         <v>614.5430248380227</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.0703369900128</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="C10" t="n">
-        <v>593.1341540621059</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="D10" t="n">
-        <v>443.0175146497702</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="E10" t="n">
-        <v>443.0175146497702</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F10" t="n">
-        <v>296.1275671518598</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>128.1411024601384</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>128.1411024601384</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880302</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>990.0598878880302</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X10" t="n">
-        <v>762.0703369900128</v>
+        <v>586.9157779011649</v>
       </c>
       <c r="Y10" t="n">
-        <v>762.0703369900128</v>
+        <v>366.1231987576348</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636217</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1729.383732054327</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1474.69924384844</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>554.5813165460164</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C19" t="n">
-        <v>385.6451336181095</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D19" t="n">
-        <v>235.5284942057738</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.113569660651</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1474.429081454764</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W19" t="n">
-        <v>1185.011911417804</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X19" t="n">
-        <v>957.0223605197863</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y19" t="n">
-        <v>736.2297813762561</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345466</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384009</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,28 +6406,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,28 +6643,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,22 +6862,22 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,10 +6892,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7822,34 +7822,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>168.7434581780644</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>256.6335606290406</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.56823228919118</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>372.2263125710881</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>126.7587027673763</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.54986409393007</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>40.58789941762433</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>40.32043864788537</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.03697526434109</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>109.4223302771038</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.143973804573761e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359154</v>
+        <v>81152.2779035916</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,10 +26323,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
@@ -26347,7 +26347,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.7179936317</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35042.64031981788</v>
+        <v>35042.64031981793</v>
       </c>
       <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719708</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481311</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.2277248131</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481319</v>
+        <v>15498.22772481311</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1161579.918431991</v>
+        <v>-1162009.477298579</v>
       </c>
       <c r="C6" t="n">
         <v>-123421.4147535536</v>
       </c>
       <c r="D6" t="n">
-        <v>-123421.4147535536</v>
+        <v>-123421.4147535537</v>
       </c>
       <c r="E6" t="n">
-        <v>-515222.0149489219</v>
+        <v>-515256.7528743577</v>
       </c>
       <c r="F6" t="n">
-        <v>-7736.573324376091</v>
+        <v>-7771.311249811668</v>
       </c>
       <c r="G6" t="n">
-        <v>-7736.573324376062</v>
+        <v>-7771.311249811712</v>
       </c>
       <c r="H6" t="n">
-        <v>-7736.573324376019</v>
+        <v>-7771.311249811683</v>
       </c>
       <c r="I6" t="n">
-        <v>-7736.573324375975</v>
+        <v>-7771.311249811683</v>
       </c>
       <c r="J6" t="n">
         <v>-203065.0181493072</v>
       </c>
       <c r="K6" t="n">
-        <v>-16032.12234569294</v>
+        <v>-16032.12234569286</v>
       </c>
       <c r="L6" t="n">
-        <v>-16032.12234569313</v>
+        <v>-16032.12234569302</v>
       </c>
       <c r="M6" t="n">
-        <v>-148639.4160746198</v>
+        <v>-148639.4160746199</v>
       </c>
       <c r="N6" t="n">
-        <v>-16032.12234569315</v>
+        <v>-16032.12234569307</v>
       </c>
       <c r="O6" t="n">
-        <v>-35459.84033932487</v>
+        <v>-35459.84033932482</v>
       </c>
       <c r="P6" t="n">
         <v>-16032.12234569307</v>
@@ -26707,22 +26707,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.815970093361102e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203962</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.32139020186588</v>
       </c>
       <c r="H2" t="n">
-        <v>39.32139020186469</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27591,19 +27591,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>54.72293255183087</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.8106442125119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.247887965415259</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27667,13 +27667,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>173.0313165627906</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80.94049690661332</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>263.936971930126</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>267.093379160092</v>
       </c>
       <c r="G8" t="n">
-        <v>153.5803131896563</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>28.67122247068664</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>47.34568249925246</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286962</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>269.1634560719501</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,25 +32552,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,7 +32795,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>650.2626573149953</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32959,10 +32959,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33026,25 +33026,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,22 +33260,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>418.4229873015965</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>559.9405577709383</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066779</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>127.0294221499318</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,7 +36443,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>508.128623392977</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36674,25 +36674,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,7 +36768,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
         <v>144.686904791938</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
